--- a/files/math.xlsx
+++ b/files/math.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\frontend playground\69. Website\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F2DEAB-A5E6-4445-9F62-4D02B5551F9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3279613-F421-4576-8095-E433C6A0816D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{19344C75-8DFC-4355-A609-599F914088E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3BC82D7D-DA03-439F-93F9-3052499ECEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>Math</t>
   </si>
@@ -2331,7 +2331,7 @@
     </r>
   </si>
   <si>
-    <t>Linear Algebra (Messer)- specific</t>
+    <t>Linear Algebra (Messer, Anton)</t>
   </si>
   <si>
     <t>sets and vector spaces</t>
@@ -2475,7 +2475,53 @@
       <t xml:space="preserve">
 matrix shape concept
 matrix element notation concept
-matrix addition &amp; scalar multiplication</t>
+matrix addition &amp; scalar multiplication
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">matrix vector multiplication:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">as a dotproduct or linear combination (each element in vector becomes scalar multiplied by each column in the matrix)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">matrix matrix multiplication:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">as a matrix multiplying many vectors </t>
     </r>
   </si>
   <si>
@@ -3422,9 +3468,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-how the linear map scales the vector "area". If 0, it cannot have an inverse (information loss)
-ad-bc = 0 means no inverse &amp; no unique solution, vice versa for 2x2 matrix.
-</t>
+how the linear map scales the vector "area". If 0, the transformation scales to 0 area (line or point), thus information loss through a reduction in dimension.</t>
     </r>
     <r>
       <rPr>
@@ -3505,7 +3549,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>j+j</t>
+      <t>i+j</t>
     </r>
     <r>
       <rPr>
@@ -3584,36 +3628,49 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">determinants as cofactor expansions:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cool</t>
-    </r>
+    <t>determinants as cofactor expansions:
+determinants by row reductions:</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cross product:
-formula:</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">properties of determinants:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scalar- det(kA) = k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>det(A)
+addition- det(A+B) != det(A) + det(B)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3621,46 +3678,102 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-append basis vectors to the top row of the matrix, then the n vectors row wise to form matrix, then take the determinant of that matrix is the cross product.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Intuition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-area of span as a vector: right hand rule (V x W- v as index, W as middle, cross product vector as thumb</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiplication- det(AB) = det(A)*det(B) if A,B are both R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nxn</t>
     </r>
   </si>
   <si>
-    <t>dimension theory</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">adjoint:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C = cofactor matrix
+adj(A)  = C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inverse of a matrix using adjoint:</t>
+    </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concepts:</t>
+    <t>vector spaces</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordered n-tuple</t>
     </r>
     <r>
       <rPr>
@@ -3671,12 +3784,1515 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-linear combination and coefficients
-span- set V' spans V if V can formed by the set of all linear combinations of V'.
-span as a subspace- span of any finite set of vectors in VS V: is a subspace of V. use subspace theorem
-linear dependence: to test, put vectors as columns in a matrix with solutions = 0, reduce to row echelon form, and see that the solution is a=b=c=0
-basis- a finite subset of a Vector Space V  (v1,v2,v3 ..etc) that fulfills conditions of span and linear independence is called a basis. basis vectors are columns in matrix, reduce to row echelon form
-dimension (comparison theorem &amp; contraction theorem &amp; expansion lemma &amp; expansion theorem)</t>
+ordered n-tuple - sequence of real numbers representing points in n-dimensional space
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real n-space:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+set of allordered n-tuples
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-norm/euclidean length:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+||v||</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = sqrt(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , … v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axioms:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">normalization of vector:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u = v/||v||2 - divide it by the norm to get a ||u||2 = 1
+distance:
+d(u,v) = ||u-v||
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dot product:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+angular form - u · v = ‖u‖‖v‖ cos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+component form- u · v = u1v1 + u2v2 + ⋅ ⋅ ⋅ + unvn
+connected by law of cosines.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cauchy schwarz ineq:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|u.v| &lt;= ||u||||v|| - connected to cos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ϴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and angular form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">geometry in Rn:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">triangle ineq for vectors &amp; distance:
+||u+v||&lt;=||u|| + ||v||,
+d(u,v)&lt;= d(u,w)+d(w,v) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cross product: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(determinant sum trick, area intuition)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">subspace (closure under operations)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W is subspace of V if W is itself a vector space under addition and scalar  multiplication defined on V</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">linear combination:
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>span/generation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+W = span(S) = set of linear combinations of S = {w1, w2, . . . , wr} = smallest linear subspace of V. W spans/generates V. 
+Det(W) != 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+linear independence:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i + k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>j + k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k = 0, (k1,k2,k3)  = (0,0,0), no nontrivial solutions. If there are, then one vector can be expressed as an LC of the other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+linearly independent span W = span(S) thus, W is basis for V
+ordered basis - basis in which order of component vectors matters
+if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, …, v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} is ordered basis for V, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + … + c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then the coordinate vector of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is
+(V)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, .. c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). ORdered </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dimension:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dim(V) is defined to be number of vectors in basis for V or len(S). If S is a basis for V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Change of basis:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>converting coordinate systems. Express old basis in terms of new basis, then express old vector in old basis as new vector in new basis by substitution (skipped)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matrix spaces:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+row vectors and column vectors, R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row space:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+subspace R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spanned by row vectors of A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Column space:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subspace R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spanned by column vectors of A 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Null space/kernel:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null(A)- the solution space of homogenous system of equations Ax = 0 = Null(A)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consistency:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ax = b consistent only if b is in the column space of A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+bases of row and column space:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if matrix R In row echelon, row vectors with leading 1s form basis for row space of R, column vectors with leading 1s form basis for column space. dim(R) = dim(C)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+dim(R) = dim(C) = Rank of A. Rank is number of dimensions of row space/col space. Rank intuition- "redundancy of matrix"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nullity:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dim(null(A)) = nullity of A. Nullity is number of dimensions of null space. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">application of rank:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if A is mxn matrix of rank k, then n-k of column vectors and m-k of row vectors can be expressed in terms of k linearly dependent row/column vectors. Data compression.</t>
+    </r>
+  </si>
+  <si>
+    <t>eigenvalues &amp; eigenvectors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eigen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eigen = German for "own"/"characteristic"/"peculiar to". Only restricted to square matrix.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Eigenvector/value:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">if A is nxn, then x in Rn  is eigenvector if : Ax = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λx. Applying A to x only scales it by λ. maps to a multiple of itself</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Characteristic equation of matrix A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ax = λx --&gt; Ax = λIx --&gt;  Ax - λIx = 0 --&gt; (A-λI)x = 0 or (λI-A)x = 0 --&gt; det(λI-A) = 0 (since it scales x to 0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>characteristic polynomial p(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where n is R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nxn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of matrix.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Basis of eigenspace
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solution space of characteristic polynomial. Null space of matrix (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">I - A), kernel, or set of vectors
+solve by solving characteristic eqn: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(λI-A)x = 0, solve for x1, … xn --&gt; basis vectors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+properties of symmetric matrices:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real eigenvalues, and orthogonal eigenvectors (from different eigenspaces)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">similarity transformation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>similarity transformation: A --&gt; P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AP where P is an invertible matrix.
+Similarity invariant - any property that is preserved under similarity transformation. Examples: determinant, invertibility, rank, nullity, trace, cp, eigenvalues, eigenspace dimension
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">similarity:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if A and B are square, B is similar to A if there is P such that B = P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diagonalizability:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if D = P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AP is diagonal, then A is diagonalizable and P is said to diagonalize A (by means of similarity transform)
+diagonalizability property:
+if A is diagonalizable, then A has n linearly independent eigenvectors (v1 ..vn)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diagonalizing a matrix:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P = matrix of basis vectors of eigenspace solutions. 
+uses- PCA, etc. Allows you to convert it to a "simple" form but retains invariant properties under similarity transform, and diagonal matrices are easy for calculations. Making things simpler.</t>
     </r>
   </si>
   <si>
@@ -3692,7 +5308,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>concepts:</t>
+      <t>norm:</t>
     </r>
     <r>
       <rPr>
@@ -3703,9 +5319,57 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-inner product- on a vector space V is an operation that combines two vectors v and w to form a real number denoted &lt;v,w&gt;, this operation of combination must fulfill positive-definite law, commutative law, homogenous property, and distributive law.
-inner product space- a vector space with an inner product.
-standard inner product- on C([a,b]) is defined by &lt;f,g&gt; is the integral from a to b of f(x)g(x)dx.</t>
+||v|| - notion of length of a vector. However, can be mapped to different types of inner products depending on the type of inner product space
+||v|| = sqrt(&lt;u,v&gt;) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">inner products:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;u,v&gt; - notation for inner product. can define different types of inner product for different uses. Ultimately, just an operation between two vectors that satisfies inner product space axioms.
+powerful because can connect to length, angle (orthogonality) and distance in different inner product spaces</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+examples of inner products:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard euclidean innerproduct
+weighted euclidean inner product (Weighted average)
+matrix inner product</t>
     </r>
   </si>
   <si>
@@ -3718,37 +5382,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">more concepts:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>norm- norm of vector v in inner product space V is denoted ||v||, the square root of the dot product.
-Angle- the angle between nonzero v and w  in Rn satisfied cos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ϴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.35"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>=v.w / ||v|||w||</t>
+      <t>orthonormality and orthogonality:</t>
     </r>
     <r>
       <rPr>
@@ -3759,124 +5393,92 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-orthogonality- the zero dot product.
-Cauchy schwarz inequality (inner product &lt;= ||v||||w||)
-orthonormality- if S is orthogonal &amp; each vector in S is a  unit vector.
-gram schmidth orthonormalization process- defines an orthonormal basis for a basis.</t>
+orthogonal- set S of vectors in real inner product space is orthogonal if all distinct pairs orthogonal.
+Orthonormal- orthogonal set with each ||vn|| = 1 (normalized, orthogonal)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">orthonormal set:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">divide each vector by ||vn||
+</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">even more concepts:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>projection of a vector onto a subspace: the inner product of that vector v with each basis vector scaled by that basis vector.
-Fourier series: brain fried already.</t>
+      <t xml:space="preserve">projection of vector on orthogonal subspace:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear combination of inner products (projections) onto the subspace vectors</t>
     </r>
   </si>
   <si>
-    <t>compositions &amp; inverses</t>
+    <r>
+      <t>gram schidt process:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+linearly independent S = {v1, ..., vk} and produce S'.
+Procedure to take a basis and produce a orthonormal basis. Skipped. Intuition- step by step, anchor v1 = u1 and construct u iteratively.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+QR decomp-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numerical algorithm for computing Gram Schmidt.</t>
+    </r>
   </si>
   <si>
-    <r>
-      <t>one to one:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-f(x1) = f(x2) implies x1=x2 . If not, function is not one to one</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-onto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-for every y there is an x such that f(x)=y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-inverse function:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-g o f  = id x &amp; f o g  id y, then g is an inverse of f OR one to one and onto</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-basis unique map:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for a basis in vector space V exists a unique linear map to W.</t>
-    </r>
+    <t>diagonalization &amp; orthogonal forms</t>
   </si>
   <si>
     <r>
@@ -3888,7 +5490,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>matrix as a linear function:</t>
+      <t>orthogonal matrix:</t>
     </r>
     <r>
       <rPr>
@@ -3899,8 +5501,91 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-consider a function that acts on the column basis vectors, then combine them together to form a matrix.
-For any linear map there is a unique matrix that can multiply the vector, where the columns of the matrix are T(en) such that it is a linear combination of the function applied to the basis vectors.
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , AA</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A = I. Multiplying itself by its transpose returns Identity matrix.
 </t>
     </r>
     <r>
@@ -3913,25 +5598,113 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-change of basis:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T(v)B' = A[v]B, a basis mapping matrix.
-component vector: the vector which represents the linear combination of the new basis, that gives the current basis. 
-change of basis matrix:  the many component vectors.
-invertibility: the inverse of the COB matrix allows you to COB back the other way whence you came.</t>
+positive definite matrix:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+symmetric matrix that has only positive eigenvalues
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Orthogonal diagonalization (orthogonal similarity transform resulting in diagonal):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D = P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AP , P is orthogonal, A is symmetric
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">conditions for OD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orthonormal set of n eigenvectors
+symmetric and real</t>
     </r>
   </si>
   <si>
-    <t>unique subspaces</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">procedure for matrix P that orthogonally diagonalizes A:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-find basis for each eigenspace of A (find eigenvectors)
+-apply gram schmidt process to orthonormalize each basis
+-form matrix P from bases as columns (eigenvectors)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3943,86 +5716,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kernel/nullspace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-set of vectors in V in which the linear Map T returns 0. 
-image: range of the linear map.
-To find kernel, set the matrix equal to 0 and solve, and the basis for the kernel is the row of 0s, which transposes to a column vector
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nullity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: dimension of nullspace
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: dimension of the image of the linear map OR dimension of vector space spanned by it's columns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dimension theorem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: rank T + nullity T = dim V.</t>
+      <t>spectral decomposition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> D = P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AP --&gt; A = PDP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
     </r>
   </si>
   <si>
@@ -4035,7 +5771,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>column space:</t>
+      <t>spectral decomposition:</t>
     </r>
     <r>
       <rPr>
@@ -4046,36 +5782,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-subspace of Rm spanned by the n columns of matrix A considered as elements of Rn.
-Aka span..
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Row space: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spanned by rows</t>
+spectrum- set of eigenvalues of the matrix.
+Each term in spectral decomposition has form 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λuu</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, where u = unit eigenvector for each λ</t>
     </r>
   </si>
   <si>
-    <t>eigenvalues &amp; eigenvectors</t>
+    <t>complex matrices</t>
   </si>
   <si>
     <r>
@@ -4087,7 +5828,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>eigenvalue/eigenvector/eigenspace</t>
+      <t>complex numbers z:</t>
     </r>
     <r>
       <rPr>
@@ -4098,20 +5839,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-a linear operator T:V -&gt; V such that T(v) = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>λv. In other words, the linear operator simply scales the original vector by a factor of lambda, v is the original eigenvector and the set of vectors for which this rule holds is the eigenspace</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+z = a + bi, then Re(z) = a, im(z) = b, a real part &amp; imaginary part
+|z| = sqrt (a2 + b2) - absolute value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ф- angle, argument of z
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = a-bi, complex conjugate</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4119,25 +5881,113 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-formula for eigenvalue with determinant:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Det(λI-A) = 0 for A being the matrix of the linear map. The determinant of the eigenvalue * identity - linear map matrix. which reduces to a polynomial equation of lambdas to be solved (characteristic polynomial and characteristic equation). once found, use the corresponding values of each eigenvalue to find the corresponding eigenvector (each value has one unique vector)</t>
+Re(z) = |z|cosФ, im(z) = |z|sinФ
+z = |z|(cosФ + isinФ) - polar form of z</t>
     </r>
   </si>
   <si>
-    <t>MIT OCW 18.01</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">conjugate transpose:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A* = </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - the matrix as a result of transposing A then taking the complex conjugate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+hermitian/unitary matrices:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+hermitian A* = A- conjugate transpose = itself
+unitary if A* = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- conjugate tranpose = it's inverse</t>
+    </r>
   </si>
   <si>
-    <t>Lecture 6 (exponential &amp; log)</t>
+    <t>general linear transformations</t>
   </si>
   <si>
     <r>
@@ -4149,10 +5999,75 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>proof of exponent derivative:</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">transformation as a function:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4160,75 +6075,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-apply increment rule to exponent, factor a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. M(a) = (a</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1)/dx, M(a) = d/dx |x=0. Thus, slope at x=0. d/dx |x=0  e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = 1, the exponent x of eulers number has gradient 1 at  x = 0. Thus, connected to an exponent of eulers number.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+linear transformation:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4236,23 +6086,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-ln intuition:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">natural log --&gt; time taken at exponential growth to input (informal intuition)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+T(kU) = kT(u) - homogeneity property
+T(u + v ) = T(u) + T(v) - additivity property
+any T satisfying these conditions is a linear transformation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear operator:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4260,60 +6111,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-proof of natural log derivative (1/x):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-d/dx lnx --&gt; d/dx e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> where w = e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lnx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. use chain rule, expand, 1/ew --&gt; 1/x. just algebraic substitution, properties of ln, and chain rule.</t>
+T : V --&gt; W where V = W, and is a linear transformation.</t>
     </r>
   </si>
   <si>
@@ -4326,23 +6124,137 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">applications of differentation:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>approximation
-max/min problems</t>
+      <t xml:space="preserve">examples of linear transformations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matrix transformations (T: Rn--&gt;Rm), zero transformations (T(v) = 0), identity (T(v) = I(v) = I, dilation &amp; contraction operators, inner product transformations T(x) = &lt;x,v0&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+examples of nonlinear transformations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>det(), translation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+linear transformation of a vector into a linear combination of images of standard basis vectors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+where c are coefficients and vn is basis vector of vector space V</t>
     </r>
   </si>
   <si>
-    <t>lecture 9 (approximation)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kernel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+nullspace, but for linear transformation T : V --&gt; W, set of vectors which T{} maps to 0.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+dimension theorem for linear transformations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rank(T) + nullity(T)  = dim(V), where 
+one-to-one:
+T: V --&gt; W  is one to one if T maps distinct vectors from V to distinct vectors on W.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+every vector in W is the image of at least one vector in V</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4354,72 +6266,167 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">linear approximation formula:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f(x) curly = f(x0) + f'(x0)(x-x0).
-A function can be approximated by the value of the function at x=0 + change in x value * the gradient.
-Newtons method and Mean value theorem</t>
+      <t xml:space="preserve">isomorphism: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+T:V--&gt;W one to one &amp; onto is said to be isomorphism. And V is thusly isomorphic to W</t>
     </r>
   </si>
   <si>
-    <t>lecture 16 (Differential equations)</t>
+    <t>numerical methods</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DE that governs ground state of harmonic oscillator:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(d/dx + x)y = 0.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LU decomposition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Solving DEs:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Connect to idea of Leibniz notation &amp; differentials (dy &amp; dx).
-Isolate respective differentials to both sides of equations and integrate.</t>
+a factorization of square matrix A as A = LU where L is lower triangular and U is upper triangular
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+solving linear systems with LU decomp/factor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ax = b --&gt; LUx = b --&gt; Ly = b --&gt; solve for y --&gt; Ux = y --&gt; solve for x. 
+Breaking down solving linear equations into two components.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+solving for y (Ly = b):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forward substitution (solve from top down to bottom)- solve the lower triangular.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+solving for Ux = y:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+backward substitution</t>
     </r>
   </si>
   <si>
-    <t>lecture 18 (definite integrals)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advantage of LU decomp over Gaussian methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+when solving a sequence of linear systems Ax = b1 …. Ax = bk, 
+factorize A = LU once, then Ly = b and Ux = y many times. Saves time in certain situations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+condition for LU decomp:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduce a square matrix to REF without row interchanges (pivoting), then A will have an LU decomposition</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4431,12 +6438,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>integral intuition (Jerison):
-for y = x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">steps for LU decomp:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">reduce A to row echelon form (without swapping rows), keep track of sole row scalar multiplications for each row. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L diagonal entries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are the reciprocals of each row's sole scalar multiple. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Below the diagonal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are the negatives of scalar addition of rows, placed in the 0's spot they induced.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cholesky decomp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+decomposition of a Hermitian, positive definite into a lower (L) and upper triangular conjugate transpose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>types of decompositions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Eigenvalue - A = PDP</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4444,10 +6552,286 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - D as diagonal eigenvalue matrix for symmetric A
+Hesseberg - A = PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - H as upper Hessenberg form for non-symmetric A
+Schur - A = PSP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - S as upper triangular form for non-symmetric A with real eigenvalues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>properties of Singular Values (A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A &amp; sqrt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if A is mxn, then A and A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A - has same null space, row space, column space &amp; rank, is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orthogonally diagonalizable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>positive real eigenvalues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; …. &gt; λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main diagonal:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -4455,29 +6839,127 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-sum of areas of rectangles a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">∑b </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(b/n)*(f(b/n)) + ….. 
-Factorize out common term , expression reduces to factor * (sum of increasing squares or height).
-Build pyramid (top view &amp; side view of sum of squares as blocks), find volume of pyramid (1/3 base height) = 1/3 n^3
- ∫f(x) dx : integral is sum, f(x) is height, dx is base of rectangle.</t>
+for mxn where m!=n, main diagonal = start from left and move diagonally- diagonal entries
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SVD:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A = U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Vi = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eigenvectors of A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>Differential Equations (Boyce &amp; Mead), (Chapman &amp; Hall)</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>differential equation intuition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+variables involved and their rates of change connected to one another, experessed in mathematical notation</t>
     </r>
   </si>
 </sst>
@@ -4488,7 +6970,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4671,14 +7153,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4688,6 +7179,26 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9.35"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4800,7 +7311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4823,34 +7334,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4899,7 +7413,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1501587</xdr:colOff>
+      <xdr:colOff>1008529</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -4908,7 +7422,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA750C-795C-4A13-B26E-5BCBD6127A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17509E4-F6AB-4A26-8AC0-49FA2DCF05F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4931,7 +7445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16583025" y="10193990"/>
-          <a:ext cx="4197162" cy="1874184"/>
+          <a:ext cx="4199404" cy="1874184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4949,7 +7463,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1557651</xdr:colOff>
+      <xdr:colOff>1064593</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4958,7 +7472,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094DE905-D882-417A-BECB-6F24CDFDD898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B285101-D5EF-4DA1-8C5C-0068A2864D5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4981,7 +7495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16583025" y="11917741"/>
-          <a:ext cx="4253226" cy="1979234"/>
+          <a:ext cx="4255468" cy="1979234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5008,7 +7522,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F08D4E-022B-4E9B-AF90-C4F092CC649F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A96B13D-E036-4554-8DB3-07EF3425B5BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,7 +7572,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745DCE9B-CB24-40C8-9632-0AA6AA685DC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADC3F40-1ABC-4422-A8FA-620D1F409576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5108,7 +7622,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29D553A-2557-45EB-8D8F-001F99F99DFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C79B5F7-6962-4E9F-8D57-07F76E138804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5158,7 +7672,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCC45FA-FD60-4797-BC78-036BA320458D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8540EFF0-3C7B-4D7F-8968-352C9E1A3F08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,7 +7722,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E326AB-FA85-4B8E-9C47-F1FCB82BA8FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889EAD7C-6CBE-4F97-95E6-9DB8ACE872F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,7 +7772,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7775AC2-67EF-40DE-A6F7-06E6859CD1A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197DC620-63C9-4C76-B193-7AA9EAC25727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5308,7 +7822,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C612889-5B71-42D3-B4D4-1F4DB385FE14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A8E2A3-1FFE-4728-81FF-D90AB9F7F3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5358,7 +7872,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DE5DC0-DC2A-44E2-80F6-487CF86C8941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B786B70-370A-42B7-B65D-4B0D00FBE4D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5408,7 +7922,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78FB6CD-55D3-44AE-97EE-370AD718E4A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8354E8-FCE4-4D52-847A-B97528B9C760}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5458,7 +7972,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00E9D1D-0F4C-4F13-886C-107DD7F3DF4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6328D23-6D99-45CA-90BF-099E2F6B4E55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5493,13 +8007,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1311088</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1662042</xdr:rowOff>
     </xdr:to>
@@ -5508,7 +8022,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7649C12E-B6AE-4029-8C2E-3A57AA4D2C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2A7E5B-339B-44F5-8737-5260262673E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5530,8 +8044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12499041" y="23293107"/>
-          <a:ext cx="5395072" cy="1505160"/>
+          <a:off x="12420600" y="23136225"/>
+          <a:ext cx="4162425" cy="1662042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5558,7 +8072,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4E1074-AC76-4619-8FBE-F853722225E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10E57F9-6779-4479-B2BB-1E6001518E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5593,22 +8107,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>118983</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>829235</xdr:rowOff>
+      <xdr:rowOff>877916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2581635</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1296025</xdr:rowOff>
+      <xdr:rowOff>1344706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5485877-369A-4A85-A17C-BA1E48B42E67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19791A6-DABA-4435-A0F7-68AFFF8537D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5630,8 +8144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16702008" y="27299210"/>
-          <a:ext cx="2576592" cy="466790"/>
+          <a:off x="16583025" y="27347891"/>
+          <a:ext cx="2581635" cy="466790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5642,14 +8156,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3238500</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1337304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2700618</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5658,7 +8172,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048741A3-0C33-438F-B6E7-A8E4DA72CA6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49655047-97F6-448C-8A70-8445FF4E0FEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5680,8 +8194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15659100" y="27807279"/>
-          <a:ext cx="3619500" cy="843921"/>
+          <a:off x="16583025" y="27807279"/>
+          <a:ext cx="2700618" cy="843921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5708,7 +8222,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217C089F-3054-4E18-8A77-DD72BAEA490C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403BFD62-87BE-48A5-BA33-E264F3FEB51D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5758,7 +8272,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4991D023-3D54-492A-BC63-E66ED52AD01A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA6479B-60CD-4C80-B179-AB4CC0EBE2F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5780,7 +8294,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2725831" y="36756975"/>
+          <a:off x="2725831" y="37404675"/>
           <a:ext cx="2791215" cy="419158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5800,15 +8314,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2891118</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A712E75D-AD4B-4EFF-8F60-DE7E15E2724D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0798506C-C1B4-4E5E-8485-49DEB5C70684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,8 +8344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5168713" y="38538710"/>
-          <a:ext cx="2498912" cy="1109383"/>
+          <a:off x="5168713" y="39186410"/>
+          <a:ext cx="2498912" cy="1113865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5858,7 +8372,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2FB372-CAEB-4368-9381-1EC4811CD12C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC62000-F4B7-4EC7-9CD7-63338AC7204E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5880,7 +8394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5028832" y="41645380"/>
+          <a:off x="5028832" y="42140680"/>
           <a:ext cx="2638793" cy="1150445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5908,7 +8422,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F09B2C4-E8B7-4FB5-8674-161DC0179732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C531F69E-7947-4545-85E0-E644DBB001D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +8444,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10142126" y="41576625"/>
+          <a:off x="10142126" y="42071925"/>
           <a:ext cx="2278474" cy="514422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5945,20 +8459,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3238261</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>120955</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>616324</xdr:rowOff>
+      <xdr:rowOff>495369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BA161F-A64F-4333-A950-45D536F61C02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19BF675-5632-4971-AE23-BB4D707BFC9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5980,7 +8494,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5952886" y="42916780"/>
+          <a:off x="5952886" y="43291125"/>
           <a:ext cx="1714739" cy="495369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6008,7 +8522,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A840E3-97CA-4B39-A7D1-5F7DE2B31397}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F2A733-4979-4BCB-959D-9506D2A8384C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6030,8 +8544,708 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13967768" y="42795825"/>
+          <a:off x="13967768" y="43291125"/>
           <a:ext cx="2615257" cy="1105054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3200155</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>552527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F875496B-77A8-49BD-870B-88C35C542C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5914780" y="44977050"/>
+          <a:ext cx="1752845" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D17DCC9-AFFB-4E49-8405-3F999F1EB531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667626" y="44977051"/>
+          <a:ext cx="4752975" cy="1781733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1546413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD2A18-B928-436F-A492-AFD801335E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="46758226"/>
+          <a:ext cx="4524375" cy="1546412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1428949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F099C4A-13CA-4BC6-8195-4EC910093414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714626" y="48720375"/>
+          <a:ext cx="4953000" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1490382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D92C103-7319-4E83-8E4E-7090C67DB237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="48720375"/>
+          <a:ext cx="4752975" cy="1490382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2274794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2133898</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>465110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E307A647-0DB3-49FB-8062-261B28244D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="53014469"/>
+          <a:ext cx="2133898" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3451410</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2169235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA0A116-D79F-448E-BE0F-85F18C98E53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6166035" y="57871435"/>
+          <a:ext cx="1501590" cy="497765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1219370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5F5D05-90DB-438F-8A52-FB90B1223F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420601" y="55702200"/>
+          <a:ext cx="4162425" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2666999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1983440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E46399-82CC-4C96-BB1C-A041C5760291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="58369199"/>
+          <a:ext cx="4162425" cy="1983441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>714475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2A1F1E-241E-4F26-96D7-DC3D0BF78DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16583025" y="58369200"/>
+          <a:ext cx="3190875" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1552526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3372321</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09488BDC-A468-4B78-8CE4-CE2EF6A7F42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="63484076"/>
+          <a:ext cx="3372321" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89207BAC-613B-460F-B32B-45EAD8004341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19773900" y="61931550"/>
+          <a:ext cx="6448425" cy="2095501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1066949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF416DC-DE39-48AE-AD76-BBDF1A1A9E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="66503550"/>
+          <a:ext cx="4752975" cy="1066949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3193675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2801</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBC970F-E1AD-44A1-BA67-D23FC04A72EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19776700" y="64027050"/>
+          <a:ext cx="6448426" cy="5981700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6339,14 +9553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104CBE25-B6D9-478A-A1CF-3D3A1757A8A8}">
-  <sheetPr codeName="Sheet49">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67AE428-E851-47E1-BC79-14A6E9A6F649}">
+  <sheetPr codeName="Sheet57">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:XFD553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6356,7 +9570,7 @@
     <col min="3" max="3" width="74.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="42.140625" customWidth="1"/>
@@ -6364,22 +9578,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6421,11 +9635,11 @@
     </row>
     <row r="4" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -6642,11 +9856,11 @@
     </row>
     <row r="16" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="5"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="6"/>
@@ -6749,11 +9963,11 @@
     <row r="22" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6780,7 +9994,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="84" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -6804,7 +10018,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="240" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="228" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -6866,7 +10080,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="144" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="132.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -6882,7 +10096,7 @@
       <c r="E28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="4"/>
@@ -6890,200 +10104,254 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:10" ht="140.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="154.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="2"/>
       <c r="G30" s="4"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:12 16384:16384" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12 16384:16384" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:12 16384:16384" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:12 16384:16384" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:12 16384:16384" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="D35" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
+    <row r="35" spans="1:12 16384:16384" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:12 16384:16384" ht="171.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:12 16384:16384" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:12 16384:16384" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:12 16384:16384" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:12 16384:16384" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:12 16384:16384" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:12 16384:16384" ht="153" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="11"/>
+      <c r="D40" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="10"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
@@ -7091,7 +10359,9 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
@@ -7100,8 +10370,8 @@
     </row>
     <row r="43" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
@@ -7109,8 +10379,8 @@
     </row>
     <row r="44" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -7135,10 +10405,10 @@
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -7358,7 +10628,7 @@
       <c r="A70" s="1">
         <v>96</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="12"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -7368,30 +10638,30 @@
       <c r="A71" s="1">
         <v>97</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="12"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="13"/>
+      <c r="G71" s="14"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>98</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="12"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>99</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="12"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="13"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -7909,7 +11179,7 @@
       <c r="A122" s="1">
         <v>148</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="11"/>
       <c r="E122" s="1"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1"/>
@@ -7919,8 +11189,8 @@
       <c r="A123" s="1">
         <v>149</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
       <c r="E123" s="1"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1"/>
@@ -8246,317 +11516,317 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>182</v>
       </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-    </row>
-    <row r="157" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+    </row>
+    <row r="157" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>183</v>
       </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-    </row>
-    <row r="158" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+    </row>
+    <row r="158" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>184</v>
       </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-    </row>
-    <row r="159" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+    </row>
+    <row r="159" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>185</v>
       </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-    </row>
-    <row r="160" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+    </row>
+    <row r="160" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>186</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-    </row>
-    <row r="161" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>187</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-    </row>
-    <row r="162" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>188</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-    </row>
-    <row r="163" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+    </row>
+    <row r="163" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>189</v>
       </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-    </row>
-    <row r="164" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+    </row>
+    <row r="164" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>190</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-    </row>
-    <row r="165" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+    </row>
+    <row r="165" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>191</v>
       </c>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-    </row>
-    <row r="166" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+    </row>
+    <row r="166" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>192</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-    </row>
-    <row r="167" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+    </row>
+    <row r="167" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>193</v>
       </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-    </row>
-    <row r="168" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+    </row>
+    <row r="168" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>194</v>
       </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-    </row>
-    <row r="169" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+    </row>
+    <row r="169" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>195</v>
       </c>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-    </row>
-    <row r="170" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+    </row>
+    <row r="170" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>196</v>
       </c>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-    </row>
-    <row r="171" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+    </row>
+    <row r="171" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>197</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-    </row>
-    <row r="172" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+    </row>
+    <row r="172" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>198</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-    </row>
-    <row r="173" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+    </row>
+    <row r="173" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>199</v>
       </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-    </row>
-    <row r="174" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+    </row>
+    <row r="174" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>200</v>
       </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-    </row>
-    <row r="175" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+    </row>
+    <row r="175" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>201</v>
       </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-    </row>
-    <row r="176" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="11"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+    </row>
+    <row r="176" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>202</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-    </row>
-    <row r="177" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+    </row>
+    <row r="177" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>203</v>
       </c>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-    </row>
-    <row r="178" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+    </row>
+    <row r="178" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>204</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-    </row>
-    <row r="179" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+    </row>
+    <row r="179" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>205</v>
       </c>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-    </row>
-    <row r="180" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+    </row>
+    <row r="180" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>206</v>
       </c>
-      <c r="B180" s="9"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-    </row>
-    <row r="181" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="11"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+    </row>
+    <row r="181" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>207</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
     </row>
     <row r="182" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -11161,7 +14431,7 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D40:F40"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="D4:F4"/>

--- a/files/math.xlsx
+++ b/files/math.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Desktop\frontend playground\69. Website\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739214AF-F571-4C21-9F27-4228C648E7BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0676828-1601-456F-88E1-813D9C09187B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{93ED63BC-A423-4052-9F94-193C5971F82A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB8BCC49-9D05-4199-A2DD-5181C74ACA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="342">
   <si>
     <t>Math</t>
   </si>
@@ -121,7 +121,10 @@
 5. Gould - Graph Theory
 6. Zill - Differential Equations
 7. Chalmard - Proof
-8. Tao - Real Analysis*</t>
+8. Tao - Real Analysis I
+9. Tao- Real Analysis II
+10. Functional Analysis
+11. Complex Analysis</t>
     </r>
   </si>
   <si>
@@ -15997,7 +16000,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">order of building:
+      <t xml:space="preserve">2.0.1 Order of building:
 </t>
     </r>
     <r>
@@ -16013,210 +16016,84 @@
 natural numbers are used to build the integers, which are then used to build the rationals, which are then used to build the reals.
 Constructing the logic/rules of the number system</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-circularity:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>using advanced fact to prove the simple fact then use the simple fact to prove the advanced fact. Not allowed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.1 Peano axioms and defining N:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Definition of natural number: set of all numbers created starting with 0 and counting forward indefinitely. The idea is to define an increment operation (+1), and start from 0.
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.1 Peano axioms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.1 Natural numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ set of all numbers created starting with 0 and counting forward indefinitely. The idea is to define an increment operation (+1), and start from 0.
 Increment  - ++ 
 Successor - n++ is successor of n.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.1 Peano axioms:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--naturality of 0: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0 is natural number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-naturality inheritance from an increment operation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if n is natural, then n++ is natural.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-0 is not a successor:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n++ != 0 (to prevent wraparound/integer overflow). 0 cannot be a successor in Peano logic.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Inheritability/universality of properties in N:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a property </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P(n)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is true for ∀n. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-existence of N for which Peano axioms are true:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> there exists a number system N whose elements we call natural numbers, for which the Peano axioms are true.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tao's definition of axiomatic vs constructive:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.2 Peano axioms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-naturality of 0:  0 is natural number
+-naturality inheritance from an increment operation: if n is natural, then n++ is natural.
+-0 is not a successor: n++ != 0 (to prevent wraparound/integer overflow). 0 cannot be a successor in Peano logic.
+-Inheritability/universality of properties in N: a property P(n) is true for ∀n. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.14 Tao's definition of axiomatic vs constructive:</t>
     </r>
     <r>
       <rPr>
@@ -16240,7 +16117,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Recursive building of the sequence </t>
+2.1.16 Recursive building of the sequence </t>
     </r>
     <r>
       <rPr>
@@ -16294,111 +16171,150 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">defining addition:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the proof is to connect the concept of addition to a recursive increment, starting with 0 + m := m, then define a (n++)+m := (n+m)++.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rest of lemmas:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-proving n+0 = 0 ➝ proving n + (m++) = (n+m)++ ➝ n+m = m+n (thus commutativeness is proved). ➝ associativity law ➝ cancellation law ➝ positivity ➝ addition ➝ ordering (as addition)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-properties:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reflexivity, transitive, anti-symmetric, addition preserves order, etc</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">defining multiplication:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>---skipped---
-mutliplication is iterative addition, as addition is iterative incrementing</t>
-    </r>
-  </si>
-  <si>
-    <t>set theory</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sets as objects:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.2. Addition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.2.1 Additional of natural numbers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The proof is to connect the concept of addition to a recursive increment, starting with 0 + m := m, then define a (n++)+m := (n+m)++.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.2.n Rest of lemmas:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Proving n+0 = 0 ➝ proving n + (m++) = (n+m)++ ➝ n+m = m+n (thus commutativeness is proved). ➝ associativity law ➝ cancellation law ➝ positivity ➝ addition ➝ ordering (as addition)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.12 Properties of natural numbers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Reflexivity, transitive, anti-symmetric, addition preserves order, etc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.3 Multiplication</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.3.1 Multiplication of natural numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mutliplication is iterative addition, as addition is iterative incrementing</t>
+    </r>
+  </si>
+  <si>
+    <t>Set Theory</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.1 Fundamentals</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.1.1 Informal definition - sets as objects:</t>
     </r>
     <r>
       <rPr>
@@ -16421,7 +16337,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Equality of sets:
+3.1.4 Equality of sets:
 </t>
     </r>
     <r>
@@ -16444,18 +16360,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-empty set properties: ∅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the empty set contains no elements (0 elements),  x !∈ ∅.
+3.1.6 empty set properties: ∅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The empty set contains no elements (0 elements),  x !∈ ∅.
 ∅ and ∅' were both empty, then by definition they are equal. |∅| = 0  </t>
     </r>
   </si>
@@ -16469,7 +16385,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>single choice:</t>
+      <t>3.1.6 Single choice:</t>
     </r>
     <r>
       <rPr>
@@ -16492,7 +16408,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-singleton and pair sets:
+3.1.9 The singleton set and pair sets:
 </t>
     </r>
     <r>
@@ -16508,8 +16424,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">subset and proper subset:
-partial ordering of subset:
+      <t xml:space="preserve">3.1.15 subset and proper subset:
+3.1.18 Partial ordering of subsets by set inclusion:
 </t>
     </r>
     <r>
@@ -16525,117 +16441,98 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">axiom of specification/separation:
-intersection:
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">terms:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>definition, domain, range, compositions, injectivity (1-to-1), surjectivity (onto), bijective (injective and surjective), images, inverse images (preimage)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>powerset axiom:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-if X and Y are sets, then there exists a set, denoted Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that consists of all functions from X➝Y.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZFC axioms - Zermelo Fraenkel axioms:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-the axioms of -extension, separation, pairing, union, infinity, powerset, choice</t>
-    </r>
-  </si>
-  <si>
-    <t>integers (Z)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">quick summary (for brevity):
+    <t xml:space="preserve">3.1.22 The axiom of specification/separation:
+3.1.23 Intersection of two sets:
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.3 Functions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Misc) Terms:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Definition, domain, range, compositions, injectivity (1-to-1), surjectivity (onto), bijective (injective and surjective), images, inverse images (preimage)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Misc) ZFC axioms - Zermelo Fraenkel axioms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The axioms of extension, separation, pairing, union, infinity, powerset, choice</t>
+    </r>
+  </si>
+  <si>
+    <t>integers (Z) and Rationals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.1 The integers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Skipped) Summary:
 </t>
     </r>
     <r>
@@ -16650,19 +16547,29 @@
     </r>
   </si>
   <si>
-    <t>rationals (Q)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>definition:</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.2 The rationals</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.2.1 Rational numbers:</t>
     </r>
     <r>
       <rPr>
@@ -16686,7 +16593,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The rational as defined as the result of two integer division:
+      <t xml:space="preserve">4.2.2 The rational as defined as the result of two integer division:
 </t>
     </r>
     <r>
@@ -16709,30 +16616,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Equality of rationals:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Q1 = Q2 only if ab = c</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Field:
+4.2.5 Field:
 </t>
     </r>
     <r>
@@ -16755,7 +16639,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Distance:</t>
+4.2.6 Distance:</t>
     </r>
     <r>
       <rPr>
@@ -16773,61 +16657,26 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ε-closeness (Tao's own definition)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">If x,y are rational numbers, then y is  ε-close to x if d(y,x)≤ ε for a given ε
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Exponentiation:
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gaps in the rational numbers:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.4 Gaps in the rational numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.4.0 Gaps in the rational numbers:</t>
     </r>
     <r>
       <rPr>
@@ -16851,31 +16700,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>interspersing/density property:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>irrationality of sqrt(2) as a rational gap:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-proof by contradiction ➝ x</t>
+      <t>4.4.1 Interspersing/density property:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.4.5 Irrationality of sqrt(2) as a rational gap:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Proof by contradiction ➝ x</t>
     </r>
     <r>
       <rPr>
@@ -17003,18 +16852,6 @@
       </rPr>
       <t xml:space="preserve"> cannot be odd. </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Closeness of rational numbers to sqrt(2)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Real numbers (R) </t>
@@ -17023,30 +16860,63 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>From Q➝R intuition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-we must go from a "discrete" system to a "continuous" system. Thus we must introduce limits.
-Real numbers are the limits of sequences of rational numbers.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">episilon-steadiness:
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.0 From Q➝R intuition:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From a "discrete" system to a "continuous" system. Thus we must introduce limits. Real numbers are the limits of sequences of rational numbers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5.1 Cauchy Sequences
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.1.1 Epsilon-steadiness:
 </t>
     </r>
     <r>
@@ -17112,18 +16982,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>eventual epsilon-steadiness:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a sequence is eventually e-steady if it is e-steady for some N≥0.
+      <t>5.1.6 Eventual epsilon-steadiness:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A sequence is eventually e-steady if it is e-steady for some N≥0.
 As long as it gets there, it is.</t>
     </r>
   </si>
@@ -17137,7 +17007,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Cauchy sequences:
+      <t xml:space="preserve">5.1.8 Cauchy sequences:
 </t>
     </r>
     <r>
@@ -17162,7 +17032,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>bounded sequence:</t>
+      <t>5.1.12 Bounded sequence:</t>
     </r>
     <r>
       <rPr>
@@ -17243,13 +17113,26 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ε-close sequences:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5.2 Equivalent Cauchy Sequences
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.2.1 ε-close sequences:</t>
     </r>
     <r>
       <rPr>
@@ -17379,7 +17262,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Eventually ε-close sequences:
+5.2.3 Eventually ε-close sequences:
 </t>
     </r>
     <r>
@@ -17395,7 +17278,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Equivalent sequences:
+      <t xml:space="preserve">5.2.6 Equivalent sequences:
 </t>
     </r>
     <r>
@@ -17434,48 +17317,60 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Construction of the Real numbers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a real number is simply defined as the limit of a Cauchy sequence of rationals.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A note on e-steadiness intra and inter sequence:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the original definition of e-close/e-steady is comparison of concurrent terms intra sequence.
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.3 Construction of the Real numbers:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A real number is simply defined as the limit of a Cauchy sequence of rationals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Misc) A note on e-steadiness intra and inter sequence:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The original definition of e-close/e-steady is comparison of concurrent terms intra sequence.
 E-close/e-steady sequences, the comparison is done inter sequence for the same index.</t>
     </r>
   </si>
@@ -17489,7 +17384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>further properties and proofs:</t>
+      <t>(Misc) Further properties and proofs:</t>
     </r>
     <r>
       <rPr>
@@ -17507,13 +17402,26 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Upper bounds of Reals:
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.5 The least upper bound property</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.5.1 Upper bounds of Reals:
 </t>
     </r>
     <r>
@@ -17536,7 +17444,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Least upper bound (supremum/sup) of Reals</t>
+5.5.10 Least upper bound (supremum/sup) of Reals</t>
     </r>
     <r>
       <rPr>
@@ -17554,24 +17462,25 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">real exponentiation:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defining an n</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5.6 Real exponentiation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defining an n</t>
     </r>
     <r>
       <rPr>
@@ -17602,62 +17511,75 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Convergence and limit laws:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-distance between two real numbers
--ε-close real numbers
--Cauchy sequences of reals
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Convergence of Sequences:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>convergence is defined as eventually ε-close for all ε &gt; 0.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uniqueness of Limits:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.1 Convergence and limit laws:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.1.1 Distance between two real numbers
+6.1.2 ε-close real numbers
+6.1.3 Cauchy sequences of reals
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.1.5 Convergence of Sequences:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Convergence is defined as eventually ε-close for all ε &gt; 0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.1.7 Uniqueness of Limits:</t>
     </r>
     <r>
       <rPr>
@@ -17681,7 +17603,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Limit:
+6.1.8 Limit:
 </t>
     </r>
     <r>
@@ -17705,59 +17627,80 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>boundedness and convergence relationship:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-every convergent real sequence is bounded
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the extended real number system:
-R*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Suprema and Infima of Sequences:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>similar to Sup/Infs of sets of reals, we extend the notion to sequences, which is also a set technically.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Convergence of Monotone bounded sequences:
+      <t>6.1.9 Boundedness and convergence relationship:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Every convergent real sequence is bounded
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.2 The extended real number system:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.3 Suprema and Infima of Sequences:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Similar to Sup/Infs of sets of reals, we extend the notion to sequences, which is also a set technically.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.3.8 Convergence of Monotone bounded sequences:
 </t>
     </r>
     <r>
@@ -17775,38 +17718,50 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Limit points:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ε-adherence. The idea is that a sequence can not be convergent to a single unique limit, but rather "want to converge" to "multiple limits"/limit points.
-A limit point is an x that is continually e-adherent.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>limsups and liminfs:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.4 Liminf, limsup and limit points
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.4.1 Limit points:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ε-adherence. The idea is that a sequence can not be convergent to a single unique limit, but rather "want to converge" to "multiple limits"/limit points. A limit point is an x that is continually e-adherent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.4.6 Limit superior and limit inferior</t>
     </r>
     <r>
       <rPr>
@@ -17824,85 +17779,77 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>some standard limits:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-limit of a sequence of a constant
-limit of a reciprocal sequence
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subsequences:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the idea is to take a a subset of a sequence, or a a subsequence, but it must be increasing in index order. 
-Properties: reflexive, transitive, not symmetric.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subsequence related to limits:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if an is a sequence converging to L, then any subsequence of an converges to L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bolzano-Weistrauss Theorem:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.5 some standard limits:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6.5.0 Limit of a sequence of a constant
+6.5.1 Limit of a reciprocal sequence
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.6 Subsequences:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The idea is to take a a subset of a sequence, or a a subsequence, but it must be increasing in index order. 
+Properties: reflexive, transitive, not symmetric.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.6.8 Bolzano-Weistrauss Theorem:</t>
     </r>
     <r>
       <rPr>
@@ -17917,51 +17864,30 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Real exponentiation part II:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-continuity of exponentiation:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>definition of real exponentiation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> connects to replacing the real as the limit L of a sequence of convergent rational numbers</t>
+    <t>6.7 Real exponentiation part II:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.7.2 Definition of real exponentiation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Connects to replacing the real as the limit L of a sequence of convergent rational numbers</t>
     </r>
   </si>
   <si>
@@ -17971,16 +17897,18 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Finite Series:</t>
-    </r>
-    <r>
-      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.1 Finite Series:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -18083,7 +18011,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Infinite Series
+      <t xml:space="preserve">7.2 Infinite Series
 </t>
     </r>
     <r>
@@ -18258,7 +18186,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Sums of non-negative numbers:
+      <t xml:space="preserve">7.3 Sums of non-negative numbers:
 </t>
     </r>
     <r>
@@ -18282,7 +18210,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Rearrangement of series:
+7.4 Rearrangement of series:
 </t>
     </r>
     <r>
@@ -18301,7 +18229,7 @@
   </si>
   <si>
     <r>
-      <t>Countability:</t>
+      <t>8.1 Countability:</t>
     </r>
     <r>
       <rPr>
@@ -18324,7 +18252,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Countable/countably infinite/denumerable sets:
+      <t xml:space="preserve">8.1.1 Countable/countably infinite/denumerable sets:
 </t>
     </r>
     <r>
@@ -18349,7 +18277,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-At Most Countable sets:
+8.1.2 At Most Countable sets:
 </t>
     </r>
     <r>
@@ -18372,7 +18300,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Uncountable:
+8.1.3 Uncountable:
 </t>
     </r>
     <r>
@@ -18388,7 +18316,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Well ordering principle:
+      <t xml:space="preserve">8.1.4 Well ordering principle:
 </t>
     </r>
     <r>
@@ -18411,7 +18339,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Countability of the Rationals (Q):
+8.1.5 Countability of the Rationals (Q):
 </t>
     </r>
     <r>
@@ -18542,29 +18470,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Summations on Infinite Sets:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fubini's Theorem for Infinite Sums:
+      <t>8.2 Summations on Infinite Sets:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8.2.1 Fubini's Theorem for Infinite Sums:
 </t>
     </r>
     <r>
@@ -18608,7 +18536,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Absolutely convergent series laws:
+8.2.2 Absolutely convergent series laws:
 </t>
     </r>
     <r>
@@ -18624,19 +18552,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Uncountable sets and Cantors Theorem:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cantor's Theorem:
+      <t xml:space="preserve">8.3 Uncountable sets and Cantors Theorem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8.3.1 Cantor's Theorem:
 </t>
     </r>
     <r>
@@ -18739,7 +18667,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Uncountability of R:
+      <t xml:space="preserve">8.3.4 Uncountability of R:
 </t>
     </r>
     <r>
@@ -18755,7 +18683,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Infinite Cartesian Products and the Axiom of Choice:
+      <t xml:space="preserve">8.4 Infinite Cartesian Products and the Axiom of Choice:
 </t>
     </r>
     <r>
@@ -18771,19 +18699,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ordered sets:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Partially ordered set </t>
+      <t xml:space="preserve">8.5 Ordered sets:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8.5.1 Partially ordered set </t>
     </r>
     <r>
       <rPr>
@@ -18817,7 +18745,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Totally ordered set</t>
+      <t>8.5.2 Totally ordered set</t>
     </r>
     <r>
       <rPr>
@@ -18835,19 +18763,19 @@
   </si>
   <si>
     <r>
-      <t>Subsets of the Real Line:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Closed/open/half open interval definitions: </t>
+      <t>9.1 Subsets of the Real Line:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9.1.1 Closed/open/half open interval definitions: </t>
     </r>
     <r>
       <rPr>
@@ -18880,7 +18808,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>є</t>
+      <t>9.1.5 є</t>
     </r>
     <r>
       <rPr>
@@ -18922,7 +18850,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Adherent points:</t>
+9.1.8 Adherent points:</t>
     </r>
     <r>
       <rPr>
@@ -18946,31 +18874,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Closure:
-Elementary properties of closure:
-Closure of intervals:
-Bounded set:
-Heine-Borel theorem of the real line:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Algebra of Real Valued Functions:
-Limiting Values of Functions:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Functional є-close
-Functional local є-close
-Convergence of functions at a point</t>
+      <t>9.1.10 Closure:
+9.1.11 Elementary properties of closure:
+9.1.12 Closure of intervals:
+9.1.13 Bounded set:
+9.1.24 Heine-Borel theorem of the real line:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.2 The Algebra of Real Valued Functions:
+9.3 Limiting Values of Functions:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9.3.1 Functional є-closeness
+9.3.3 Functional local є-closeness
+9.3.6 Convergence of functions at a point</t>
     </r>
     <r>
       <rPr>
@@ -18994,7 +18922,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Limit laws for functions</t>
+      <t>9.3.14 Limit laws for functions</t>
     </r>
     <r>
       <rPr>
@@ -19018,24 +18946,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Limits are local</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Continuous Functions:
-C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ontinuity of a function</t>
+      <t>9.3.18 Limits are local</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.4 Continuous Functions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.4.1 Continuity of a function</t>
     </r>
     <r>
       <rPr>
@@ -19103,10 +19031,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Equivalent formulations of continuity
-Arithmetic preserves continuity
-Exponentiation is continuous
-Absolute value is continuous</t>
+      <t>9.4.7 Equivalent formulations of continuity
+9.4.9 Arithmetic preserves continuity
+9.4.10 Exponentiation is continuous
+9.4.12 Absolute value is continuous</t>
     </r>
     <r>
       <rPr>
@@ -19130,7 +19058,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Composition preserves continuity</t>
+      <t>9.4.13 Composition preserves continuity</t>
     </r>
     <r>
       <rPr>
@@ -19157,39 +19085,62 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Left and right limits:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Definition of left and right limit
-Continuity if both left and right limits are equal (jump discontinuities, asymptotic discontinuities, oscillatory discontinuities)
-The maximum principle
-Bounded from above, bounded from below, bounded</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intermediate value theorem:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Intermediate value theorem definition: </t>
+      <t xml:space="preserve">9.5 Left and right limits:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.5.1 Definition of left and right limit
+9.5.2 Continuity if both left and right limits are equal (jump discontinuities, asymptotic discontinuities, oscillatory discontinuities)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.6 The maximum principle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.6.1 Bounded from above, bounded from below, bounded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.7 Intermediate value theorem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9.7.1 Intermediate value theorem definition: </t>
     </r>
     <r>
       <rPr>
@@ -19212,37 +19163,36 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Monotonic functions:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monotone increasing/decreasing
-Strictly monotone increasing/decreasing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Uniform continuity:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Definition of uniform continuity</t>
+9.8 Monotonic functions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.8.1 Monotone increasing/decreasing, strictly monotone increasing/decreasing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9.9 Uniform continuity:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.9.2 Definition of uniform continuity</t>
     </r>
     <r>
       <rPr>
@@ -19289,7 +19239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Equivalent sequences
+      <t xml:space="preserve">9.9.5 Equivalent sequences
 </t>
     </r>
     <r>
@@ -19389,19 +19339,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Limits at infinity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Infinite adherent points</t>
+      <t xml:space="preserve">9.10 Limits at infinity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9.10.1 Infinite adherent points</t>
     </r>
     <r>
       <rPr>
@@ -19419,6 +19369,39 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9.10.3 Limits at infinity</t>
+    </r>
+  </si>
+  <si>
+    <t>Differentiation of functions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.1 Basic Definitions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.1.1 Differentiability at a point (compute left and right limits)
+10.1.7 Newton's approximation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -19438,54 +19421,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Limits at infinity</t>
-    </r>
-  </si>
-  <si>
-    <t>Differentiation of functions</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Basic Definitions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Differentiability at a point (compute left and right limits)
-Newton's approximation</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Differentiability implies continuity (smoothness)
-Differentiability on a domain
-Differential calculus properties</t>
+      <t>10.1.10 Differentiability implies continuity (smoothness)
+10.1.11 Differentiability on a domain
+10.1.13 Differential calculus properties</t>
     </r>
   </si>
   <si>
@@ -19502,7 +19440,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Rolle's Theorem
+      <t xml:space="preserve">10.2.1 Local maxima and minima
+10.2.7 Rolle's Theorem
 </t>
     </r>
     <r>
@@ -19526,27 +19465,27 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Mean value theorem (corollory of Rolle's Theorem)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Monotone Functions and Derivatives
-Inverse Functions and Derivatives
-L'Ho^pital's Rule
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">L'Hopital's Rule - </t>
+10.2.9 Mean value theorem (corollory of Rolle's Theorem)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.3 Monotone Functions and Derivatives
+10.4 Inverse Functions and Derivatives
+10.5 L'Ho^pital's Rule
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.5.1 L'Hopital's Rule - </t>
     </r>
     <r>
       <rPr>
@@ -19573,24 +19512,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Partitions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Connectedness
-Length of intervals
-Partitions
-Length is finitely additive
-Finer and coarser partitions
-Common refinement</t>
+      <t xml:space="preserve">11.1 Partitions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.1.1 Connectedness
+11.1.8 Length of intervals
+11.1.10 Partitions
+11.1.13 Length is finitely additive
+11.1.14 Finer and coarser partitions
+11.1.16 Common refinement</t>
     </r>
     <r>
       <rPr>
@@ -19603,54 +19542,54 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Piecewise constant functions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Constant functions
-Piecewise constant functions
-Piecewise constant integral
-Piecewise constant integral is independent of partition
-Laws of integration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Upper and lower Riemann integrals
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Majorization/minorization (above and below of functions)
-Upper and lower Riemann integrals
-Riemann integral
-Riemann sums</t>
+11.2 Piecewise constant functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.2.1 Constant functions
+11.2.3 Piecewise constant functions
+11.2.9 Piecewise constant integral
+11.2.13 Piecewise constant integral is independent of partition
+11.2.16 Laws of integration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+11.3 Upper and lower Riemann integrals
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.3.1 Majorization/minorization (above and below of functions)
+11.3.2 Upper and lower Riemann integrals
+11.3.4 Riemann integral
+11.3.9 Riemann sums</t>
     </r>
     <r>
       <rPr>
@@ -19663,21 +19602,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Basic properties of the Riemann integral
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Laws of Riemann integration
-Max and min preserve integrability
-Absolute values preserve integrability</t>
+11.4 Basic properties of the Riemann integral
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.4.1 Laws of Riemann integration
+11.4.3 Max and min preserve integrability
+11.4.4 Absolute values preserve integrability</t>
     </r>
     <r>
       <rPr>
@@ -19701,25 +19640,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Riemann integrability of continuous functions
-Riemann integrabilitiy of monotone functions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A non-Riemann integrable function
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The discontinuous function</t>
+      <t>11.5 Riemann integrability of continuous functions
+11.6 Riemann integrabilitiy of monotone functions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.7 A non-Riemann integrable function
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.7.1 The discontinuous function</t>
     </r>
     <r>
       <rPr>
@@ -19743,30 +19682,30 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The Riemann-Stieltjes Integral
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>α-length</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Riemann-Stieltjes integral definition
+11.8 The Riemann-Stieltjes Integral
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.8.1 α-length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11.8.5 Riemann-Stieltjes integral definition
 </t>
     </r>
     <r>
@@ -19822,51 +19761,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Two fundamental theorems of calculus:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>First fundamental theorem of calculus
-Antiderivatives
-Second fundamental theorem of calculus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Consequences of the fundamental theorem:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integration by parts formula
-Change of variables formula I
-Change of variables formula II
-Change of variables formula III</t>
+      <t>11.9 Two fundamental theorems of calculus:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.9.1 First fundamental theorem of calculus
+11.9.3 Antiderivatives
+11.9.4 Second fundamental theorem of calculus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.10 Consequences of the fundamental theorem:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11.10.1 Integration by parts formula
+11.10.5 Change of variables formula I
+11.10.6 Change of variables formula II
+11.10.7 Change of variables formula III</t>
     </r>
   </si>
   <si>
@@ -21641,6 +21580,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -21709,7 +21649,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -21780,7 +21719,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB36475-C838-49FC-BABF-9221FFEE2B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF8E2EC-A488-400B-9F51-C33375C05074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21830,7 +21769,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF4C505-1E32-4FCC-9344-0D424C455E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609CB7FE-4957-452D-B248-39069C80FAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21880,7 +21819,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0569EB52-E8AE-4B1D-A671-196248FCD836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B525457D-C725-4E71-B157-4825C778E5BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21930,7 +21869,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9910474E-4158-49EE-A703-EE057DC774C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A820144-BC51-4304-BF90-EB4A80AB3264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21980,7 +21919,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA8A1D2-16CA-475F-994D-128B95D01E70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8578A01E-549F-4BC1-878E-B64273BE055C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22030,7 +21969,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CAB8BD-9019-4DB3-B504-BD0BD7A8DB6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B31FD40-D33B-4356-B791-4AEB64A70748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22080,7 +22019,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B39CA6-A09B-47D3-80A4-BE90AB867831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE1AF7E-93A8-4373-B0A3-6D0032CAE294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22130,7 +22069,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA86007-7019-48C9-A909-57FEFED74ACC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CB9E13-5504-4DCD-A09F-E05F377C151D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22180,7 +22119,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45242946-3C8E-4302-BB07-3E03B266AA6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74643B07-0D88-4DB9-B92D-332290875E06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22230,7 +22169,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAB1ED1-D445-467D-A823-CB4790ED4008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C57B5D6-AF2A-49CA-8C60-1169912B2C37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22280,7 +22219,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1CFE78-C313-420F-8A77-A26D37CE495B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A76206A-DF1B-4023-8EA7-46EAD25EEFEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22330,7 +22269,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BBF18D-A178-40CF-B1BC-126B64C4874E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0E1FA8-8448-4838-B3B5-1BAA828F2329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22380,7 +22319,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE81A028-C64E-42DD-B87B-FEA51D679CED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB9F710-15BC-4058-951C-F6342F3B72C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22430,7 +22369,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C081432-113E-4178-8C1E-AC7CB8383CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384C6E13-25E1-46BF-868C-0DD4FD7ABB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22480,7 +22419,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D625B5BD-1944-46B8-AB8E-5F0259941D35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C767F006-0928-4BFC-9822-BDC49E0C206D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22530,7 +22469,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86519518-3760-4CE6-86B1-D658E5C441FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBBE0C7-8C6F-4AB6-AFD5-58D30A5C9CE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22580,7 +22519,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEACB9D-B650-4AF1-AADD-DE3DE32F1C2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0055A0-3C57-43BF-B115-F1FC5671A564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22630,7 +22569,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44CBC3B-76DB-4BBE-822E-EB6DAB03E255}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00C79AE-0671-46A0-856A-8BC74DBF1DAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22680,7 +22619,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F4529B-F1C1-47CD-91BA-7AD54076F2D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE82C794-7B42-4383-B2D9-408F7A944845}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22730,7 +22669,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD7424D-3F87-42DC-8926-55022EB109A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3109594D-A346-402C-BD4C-882D70DD8BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22780,7 +22719,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3712E3C0-D1F2-4D28-8284-8A13966EFD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE8F3E6-40D2-4056-B5D7-6D3FB0EE3194}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22830,7 +22769,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BE7BA5-A915-466B-9FB8-16FA52E795D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3764E94C-0072-4A61-BDB9-1DC96E16DDD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22880,7 +22819,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F1E3A9-B895-43E4-8548-5FD728939B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDDA8B4-881E-4626-860E-6FB9AF80B21A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22930,7 +22869,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A8ED25-BFB2-4A1E-974D-9782B31E8EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73737123-5197-417C-99BF-1017FDDEF843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22980,7 +22919,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF88612-AEE5-45AB-A7CA-10BFA746478D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9DC0AB-0961-49DF-92DF-37B504A5C8EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23030,7 +22969,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3962B45B-B0B4-4C84-BD08-3868BEF357D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F623516-39F0-410C-9492-A69DDB772002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23080,7 +23019,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B6A09D-DF55-4E35-8C27-F7503A6B828A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26062A86-DD31-42CE-82F3-667BE1E5CBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23130,7 +23069,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B298A45F-354D-4EC0-A4BD-2B0F0050AF50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730795B5-1580-4135-934F-13A0F4C36A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23180,7 +23119,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B2F534-65AB-4880-9A01-689676652966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB8A4AF-D549-485F-ACE2-2D0E9B20A1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23230,7 +23169,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E7FC79-F40B-4669-8981-BCAF85AB9227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34695E60-F061-4896-A7CA-723F4F12F060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23280,7 +23219,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E418D1DB-0977-4305-B138-CD71693BC59A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B28C79A-426F-4B37-B9BE-28C9E6D42BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23330,7 +23269,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC859A88-5AB1-4E98-90BD-F7E490F03A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11EEFF03-7F2E-4446-8E34-D907B88AC83A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23380,7 +23319,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF1EB7C-5761-463D-BFEF-86CC01BF6BD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D78D1D-2DC7-413D-85B3-4BD6EDACEC79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23430,7 +23369,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5E2D95-CF32-477D-BC9C-B790F4C81174}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A12490-C0FF-4820-99D4-05E3F5A4B770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23480,7 +23419,7 @@
         <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD73B34-089F-4184-B40B-77765073F193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29767EC8-6B6E-4EDF-9B93-6446E3D89C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23530,7 +23469,7 @@
         <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EF1F0D-7F0B-4717-AB96-790036F2AFEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCDE911-FA4D-43C2-ABE3-D2A06975B4E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23580,7 +23519,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9212A795-00BB-4640-95B0-8ECE90084637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A32A54-9EFF-493C-A814-F71B0402FA01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23630,7 +23569,7 @@
         <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E44DCA7-F7FB-4168-86AD-6AE1CC0CC5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C34EA05-9EED-4205-BD36-3805FBF1CE2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23680,7 +23619,7 @@
         <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204AA3F5-9F16-4776-AE55-B16BC1FD80CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A939C70-4E71-48D6-A30A-A3C52D38CB13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23730,7 +23669,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC49B0C-E1AA-4580-AE7B-EE0DF441246A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0C5975-9BBE-4A25-BD5D-2B3F2319E6AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23780,7 +23719,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E8D3BC-4BC2-4DDA-A63E-7F2AAA7A659F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADE0D67-0F03-4FB4-B562-951883A63941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23830,7 +23769,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EF9F1A-2B70-4E2D-99C2-6ABC912A2323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E491017-2472-44DD-8F9E-0F526D74CF42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23880,7 +23819,7 @@
         <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DB7B01-23D8-4C73-A8D4-936C45449632}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F82AE0-4AAF-4301-85EF-46B24F81E448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23930,7 +23869,7 @@
         <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C931D0-6D8A-4EBA-92D9-5C73C28566B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE92AF7-3C4E-4916-871C-F87E3BD1BD77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23980,7 +23919,7 @@
         <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D135168-B74A-4F1A-8753-7CA51AB17642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B0126A-9728-4AF0-938A-48C4D039C40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24030,7 +23969,7 @@
         <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A04848F-E589-400C-8948-EA54CA905C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7900D891-45CB-4B4E-9B01-2F050C31655C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24080,7 +24019,7 @@
         <xdr:cNvPr id="48" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A1C465-2722-4A82-831B-7FF9D9F9B74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB856161-26AD-4B49-A175-4D613E193BD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24130,7 +24069,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB133B0A-B09F-4331-A807-237853542D84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E8D528-6CAF-40E1-B779-259C997A15B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24180,7 +24119,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25CC4F1-38AC-4C83-92DB-63589B30592C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F890AA-0E41-4E18-B878-D21F50A6A00E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24230,7 +24169,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF257DF-B7CF-467A-BDD1-F3B72A9EA638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE638AE-A62E-4492-9C02-1747C262AE7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24280,7 +24219,7 @@
         <xdr:cNvPr id="52" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B2B8E9-7331-4BAB-94A7-8DD2C2779762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB3F52D-7FE1-4D2C-AAE8-2F1154BAA3D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24330,7 +24269,7 @@
         <xdr:cNvPr id="53" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDE9265-98D3-45DD-BB66-D8CA56122E59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E21A21F-ECE8-4FEE-A993-9B24BBB34ED0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24380,7 +24319,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF27C251-FA7E-4C4B-A6DA-FC14EF085970}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E9F7AC-F6B3-4360-9AAE-60187AD1F8DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24430,7 +24369,7 @@
         <xdr:cNvPr id="55" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B20C7F-F402-4013-8A6A-62F36DB278AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84041057-2655-43B0-AD7E-44CA39F00606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24480,7 +24419,7 @@
         <xdr:cNvPr id="56" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4871978-D48B-4DC6-974F-9B565939E0A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470C4FCC-4B1E-4FD2-87FF-7402ABA836AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24530,7 +24469,7 @@
         <xdr:cNvPr id="57" name="Picture 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5842ED45-5218-43C9-B87C-77B1273F8B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA37D446-D727-4BB6-BEB7-CC9D7B010217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24580,7 +24519,7 @@
         <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75028241-471C-407F-A9F7-9B39B2DDABBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80CFFFC-497C-44EA-9985-FD5760C537B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24630,7 +24569,7 @@
         <xdr:cNvPr id="59" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084FE531-BECD-49BE-96B4-2677B79968ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92ABE6C-FB59-47E7-AF28-2064F75313C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24680,7 +24619,7 @@
         <xdr:cNvPr id="60" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D542D1A-A7FF-45D5-B46B-3B7DAC5BD128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F748E823-05D7-4EFE-9980-5A33CF6E7283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24730,7 +24669,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C942E0F8-8FDD-4BB0-BBB1-0C9C915FB212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFFF8C7-7FD2-4A76-81CB-B2C3CCE67E9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24780,7 +24719,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8392A4-E884-44EC-9916-9B50BC411733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BD611D-07F4-4135-A986-51C8309130F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24830,7 +24769,7 @@
         <xdr:cNvPr id="63" name="Picture 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9750D1-BC81-486B-800B-E5CA18D693BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E69DAD7-5F49-4D4A-835D-670A9B13B190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24880,7 +24819,7 @@
         <xdr:cNvPr id="64" name="Picture 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83C71D9-C761-4BA1-9306-2BB5A4EE0131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580C8B3C-B5C3-4CAC-BB3F-2E523A5698F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24930,7 +24869,7 @@
         <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D60509-4FDE-4947-BDC2-26021D003133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091460C7-3030-488D-8845-AF74839B81BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24952,7 +24891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="169287825"/>
+          <a:off x="2381250" y="168754425"/>
           <a:ext cx="4953000" cy="784411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24967,20 +24906,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4123765</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1187824</xdr:rowOff>
+      <xdr:rowOff>1098177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="66" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4002C9-716B-4A7D-8B25-1024213DE602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261F0921-A91E-44C9-B745-495760A40E47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25002,8 +24941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="171821476"/>
-          <a:ext cx="4162425" cy="1187823"/>
+          <a:off x="12087225" y="170611800"/>
+          <a:ext cx="4123765" cy="1098177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25015,22 +24954,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>885264</xdr:rowOff>
+      <xdr:rowOff>179291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3193676</xdr:colOff>
+      <xdr:colOff>3843618</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1322293</xdr:rowOff>
+      <xdr:rowOff>638735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="67" name="Picture 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6B720D-F99F-4CDC-95FA-B4F073B73625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E203D8B7-570E-4F71-ACE8-387C9EB85C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25052,8 +24991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="172706739"/>
-          <a:ext cx="3193676" cy="437029"/>
+          <a:off x="16283267" y="170791091"/>
+          <a:ext cx="3810001" cy="459444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25065,22 +25004,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>44822</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1266763</xdr:rowOff>
+      <xdr:rowOff>1188324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3193676</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3238498</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1636061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="68" name="Picture 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C4463-3730-4D3A-80B1-46B75C351E80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C485AC9-C72D-4AAD-B5DA-6277E4B52EA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25102,7 +25041,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="173088238"/>
+          <a:off x="16294472" y="171800124"/>
           <a:ext cx="3193676" cy="447737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25114,23 +25053,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>414619</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4762498</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>963705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="69" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7577036-E217-4485-899F-7398E6C42B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE25F31-1E0F-4B25-AA45-8CF5ACBEBF0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25152,8 +25091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="173535976"/>
-          <a:ext cx="4752975" cy="414618"/>
+          <a:off x="2414866" y="175558635"/>
+          <a:ext cx="4728882" cy="941295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25165,22 +25104,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>1019736</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4941793</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>613401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="70" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9697D209-0214-4E61-82D6-31E6EB15B7E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2C7CB6-A33B-49E8-9532-E2E421D85815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25202,8 +25141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="175574325"/>
-          <a:ext cx="4953000" cy="1019736"/>
+          <a:off x="2414866" y="177093841"/>
+          <a:ext cx="4908177" cy="579785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25215,22 +25154,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4717676</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>1030940</xdr:rowOff>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4157381</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4650439</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>470647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="71" name="Picture 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80362EE-E109-4950-A8DE-9C65B7D05FD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E713EB07-D91C-49E6-8787-E0E9F75C298F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25252,158 +25191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12051926" y="176605265"/>
-          <a:ext cx="4192680" cy="874060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>680638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C20D3C-2809-44D6-8EDC-DDB80B0EF9AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="177479325"/>
-          <a:ext cx="4953000" cy="680638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>459441</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1535F358-FACB-4A27-BF80-86D952F75561}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334250" y="177479325"/>
-          <a:ext cx="4752975" cy="459441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>1030941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BF2A94-8D26-4FA6-AEB0-F7272C95F187}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334251" y="178898550"/>
-          <a:ext cx="4752975" cy="1030941"/>
+          <a:off x="7367866" y="177071431"/>
+          <a:ext cx="4616823" cy="459441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25427,10 +25216,160 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEECE38-A320-4FB1-8907-809D67D8E78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="180517800"/>
+          <a:ext cx="4953000" cy="705970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1030941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD44D0C-33A5-42F4-96F5-AC2570F4B1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16260857" y="180529007"/>
+          <a:ext cx="3798794" cy="1019734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4919381</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>986117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEC929D-AB0B-49CC-BA28-B906FBDB836F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2403660" y="182200922"/>
+          <a:ext cx="4896971" cy="941295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4695265</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>907677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="75" name="Picture 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4AED95-E014-497B-8154-BE28B4F35151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D844B2-E817-4F9E-AAD1-D04FBB56488F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25452,8 +25391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="180460650"/>
-          <a:ext cx="4953000" cy="705970"/>
+          <a:off x="7367867" y="184047093"/>
+          <a:ext cx="4661648" cy="874059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25464,23 +25403,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1484056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3193677</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>1019735</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4919382</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2286001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="76" name="Picture 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B65B3C-69B6-46DC-86A0-F814B7F6C1F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4F4963-C96F-4E0B-BA7D-5B8F68C2A443}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25502,8 +25441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249651" y="180460651"/>
-          <a:ext cx="3193676" cy="1019734"/>
+          <a:off x="2392457" y="187192981"/>
+          <a:ext cx="4908175" cy="801945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25514,23 +25453,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>1109383</xdr:rowOff>
+      <xdr:colOff>4650441</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>829237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AF8CED-A7F2-420F-A89B-5338330CBB30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6A73D0-F980-442E-9462-E07B76B614D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25552,8 +25491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="182143213"/>
-          <a:ext cx="4953000" cy="941295"/>
+          <a:off x="7345457" y="185720132"/>
+          <a:ext cx="4639234" cy="818030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25565,22 +25504,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1255059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>874059</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4706470</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>2241178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="78" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD58241B-094E-4953-862A-CB2238389328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED22FD0-1D6D-49A4-A5A1-488360C1C20B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25602,8 +25541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334251" y="183537225"/>
-          <a:ext cx="4752975" cy="874059"/>
+          <a:off x="7367867" y="186963984"/>
+          <a:ext cx="4672853" cy="986119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25614,23 +25553,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>1428026</xdr:rowOff>
+      <xdr:rowOff>1479176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>2229971</xdr:rowOff>
+      <xdr:rowOff>2073088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="79" name="Picture 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27BA658-345F-4BF1-BF70-295169157487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACBA629-A266-438A-8F56-84648B52D8D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25652,157 +25591,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381251" y="186336851"/>
-          <a:ext cx="4953000" cy="801945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>862853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E07E1C1-B09C-42BA-856C-CC86CA0F9D11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334251" y="184908825"/>
-          <a:ext cx="4752975" cy="862853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4885765</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>1232647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4728882</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>2218766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4C5305-764A-4275-A3E4-E758DCDA5042}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7267015" y="186141472"/>
-          <a:ext cx="4796117" cy="986119"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>1692090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>2286002</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109EDA39-D02B-4231-9C15-F4044402B4E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12087226" y="186600915"/>
+          <a:off x="12087226" y="187188101"/>
           <a:ext cx="4162425" cy="593912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25827,10 +25616,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82">
+        <xdr:cNvPr id="80" name="Picture 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D337D5D7-7157-4531-A605-515B601E4D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFD920D-91A3-46E0-9C01-868072F54A80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25839,7 +25628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -25852,7 +25641,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249651" y="184931237"/>
+          <a:off x="16249651" y="185731337"/>
           <a:ext cx="3857625" cy="1008529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -25877,10 +25666,160 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CD824F-4202-4DAC-A5B5-D3D8002B7469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16260856" y="187692365"/>
+          <a:ext cx="2274794" cy="414617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4863351</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1120589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D824BC-7050-42D0-B71C-1D1C74343585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2414866" y="188474537"/>
+          <a:ext cx="4829735" cy="1098177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2039469</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>408407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BA5DC6-8496-42CC-A87E-1EA9B31A3E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7345456" y="188463331"/>
+          <a:ext cx="2028263" cy="397201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>37942</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>374118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2725241</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1042147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="84" name="Picture 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64008F0D-9814-4ADD-BB6C-32D772989B99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670E0EEE-DFEF-4153-93C5-3E4365EB9081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25902,157 +25841,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16260856" y="186892265"/>
-          <a:ext cx="2274794" cy="414617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>1098177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0925A259-3292-45DC-955A-227426D30F4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="187652025"/>
-          <a:ext cx="4953000" cy="1098177"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2028263</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>397201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B8C870-B4A2-490D-96C1-304685B6B0A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334250" y="187652025"/>
-          <a:ext cx="2028263" cy="397201"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4912500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>362912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2646799</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>1030941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587C6FF1-2E08-47B9-98DC-2A536A04E74E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7293750" y="188014937"/>
+          <a:off x="7372192" y="188826243"/>
           <a:ext cx="2687299" cy="668029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26077,10 +25866,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87">
+        <xdr:cNvPr id="85" name="Picture 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114F5B20-2523-49B7-B1CB-B303A1FFEE20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F97A72C-9F38-44FB-8880-5B0E819B494C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26089,7 +25878,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26102,7 +25891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="187652025"/>
+          <a:off x="16249650" y="188452125"/>
           <a:ext cx="3857625" cy="896470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26115,22 +25904,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>907675</xdr:rowOff>
+      <xdr:rowOff>930087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>280146</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3832412</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>2207558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88">
+        <xdr:cNvPr id="86" name="Picture 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5500DE2-11B0-4762-9627-F3A2C2A02B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E31369A-2405-4238-B56C-8E897BF45553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26139,7 +25928,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26152,8 +25941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="188559700"/>
-          <a:ext cx="3857625" cy="1277471"/>
+          <a:off x="16283268" y="189382212"/>
+          <a:ext cx="3798794" cy="1277471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26173,14 +25962,14 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>1255059</xdr:rowOff>
+      <xdr:rowOff>1322294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89">
+        <xdr:cNvPr id="87" name="Picture 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F816837-A384-46B0-9C77-3E38BA835D7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2128B52-A52E-4C2E-913D-582193B93085}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26189,7 +25978,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26202,8 +25991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="189557025"/>
-          <a:ext cx="4752975" cy="1255059"/>
+          <a:off x="7334250" y="190680975"/>
+          <a:ext cx="4752975" cy="1322294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26227,10 +26016,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90">
+        <xdr:cNvPr id="88" name="Picture 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE510D6-6219-4B68-8CC2-E78646F1CDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37816BD1-C940-44D3-86F9-F3A8541E114B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26239,7 +26028,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26252,7 +26041,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="189557025"/>
+          <a:off x="12087225" y="190680975"/>
           <a:ext cx="4162425" cy="918882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26277,10 +26066,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91">
+        <xdr:cNvPr id="89" name="Picture 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2415305A-920E-45DF-9D2C-C8E2518E7D27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0272C277-A862-4BC2-A860-EAB092D9C5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26289,7 +26078,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26302,7 +26091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="191166750"/>
+          <a:off x="2381250" y="192290700"/>
           <a:ext cx="4953000" cy="1882587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26315,22 +26104,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>44822</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>549089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:colOff>4101351</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>1255060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92">
+        <xdr:cNvPr id="90" name="Picture 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B8CF72-3D95-42AD-8D9F-3581FC4EBC73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFF7ED6-8C77-4DEB-AFC2-48C2374B326B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26339,7 +26128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26352,8 +26141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="191715839"/>
-          <a:ext cx="4146176" cy="705971"/>
+          <a:off x="12132047" y="192839789"/>
+          <a:ext cx="4056529" cy="705971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26377,10 +26166,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93">
+        <xdr:cNvPr id="91" name="Picture 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C676F0D-AF3F-468D-81E9-E6877FE0C034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F90D9F-7AD3-49F3-BA05-757D806D6A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26389,7 +26178,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26402,7 +26191,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="191166750"/>
+          <a:off x="16249650" y="192290700"/>
           <a:ext cx="3857625" cy="1591235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26427,10 +26216,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94">
+        <xdr:cNvPr id="92" name="Picture 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C9992E-A3F0-4980-AEB0-2AEEF49BA81B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2804CE80-6DE8-406A-A829-D795BA149F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26439,7 +26228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26452,7 +26241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="193471800"/>
+          <a:off x="2381250" y="194595750"/>
           <a:ext cx="4953000" cy="1266264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26477,10 +26266,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95">
+        <xdr:cNvPr id="93" name="Picture 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63334FFF-6A38-4525-B78A-8FAB6C606EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72324A5-B7EE-4062-97A0-166F306B0BCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26489,7 +26278,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26502,7 +26291,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334251" y="193471800"/>
+          <a:off x="7334251" y="194595750"/>
           <a:ext cx="4752975" cy="1053353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26527,10 +26316,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96">
+        <xdr:cNvPr id="94" name="Picture 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE5AFB-1A7E-43D5-BC6F-8374F50F66E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491A20FB-2C38-40AF-B356-983044CB51A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26539,7 +26328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26552,7 +26341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="195624450"/>
+          <a:off x="7334250" y="196748400"/>
           <a:ext cx="4752975" cy="1882589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26577,10 +26366,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97">
+        <xdr:cNvPr id="95" name="Picture 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00453EB2-9E5A-46AD-B049-3412FCC3D0A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE64FB-5359-490C-9C07-A8DBF41E099C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26589,7 +26378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26602,7 +26391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="195624450"/>
+          <a:off x="12087225" y="196748400"/>
           <a:ext cx="4162425" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26614,23 +26403,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>1938617</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3742763</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1714501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98">
+        <xdr:cNvPr id="96" name="Picture 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB43A662-203A-48CB-A62E-2C1940515CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C8762C-0020-4AAD-A18D-284CCD2B716F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26639,7 +26428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26652,8 +26441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="203454000"/>
-          <a:ext cx="4752975" cy="1938617"/>
+          <a:off x="16283266" y="202303157"/>
+          <a:ext cx="3709147" cy="1703294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26665,22 +26454,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>22411</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>851647</xdr:rowOff>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4740088</xdr:colOff>
+      <xdr:colOff>4740087</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>1602441</xdr:rowOff>
+      <xdr:rowOff>784410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99">
+        <xdr:cNvPr id="97" name="Picture 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACC640F-E3A0-403D-8102-02AE0F9DF923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389CE4EA-AF3E-41EB-AEB8-B78D522B886A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26689,7 +26478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26702,7 +26491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7356662" y="206248747"/>
+          <a:off x="7356661" y="206135566"/>
           <a:ext cx="4717676" cy="750794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26727,10 +26516,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100">
+        <xdr:cNvPr id="98" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0274C7-6C32-4E47-A1D4-D9DBE7CBD422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8F41F6-9F13-499F-B5E7-33106B5F4683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26739,7 +26528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26752,7 +26541,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2414866" y="207038760"/>
+          <a:off x="2414866" y="207743610"/>
           <a:ext cx="4874559" cy="2017059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26777,10 +26566,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101">
+        <xdr:cNvPr id="99" name="Picture 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B51E8A-FEB5-4880-B0DF-C16EA8C44BA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6ED98FD-D43C-49D5-A0F0-CBB91A182743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26789,7 +26578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26802,7 +26591,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="208361056"/>
+          <a:off x="12087225" y="209065906"/>
           <a:ext cx="4162425" cy="703170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26827,10 +26616,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102">
+        <xdr:cNvPr id="100" name="Picture 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71A7C20-CDE5-4ECF-B6E6-673F2505468A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E9DF1E-576B-45F2-87F8-A2E430B8075D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26839,7 +26628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26852,58 +26641,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16249650" y="207016350"/>
+          <a:off x="16249650" y="207721200"/>
           <a:ext cx="3857625" cy="698952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>896470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D17FF8-DC63-4B61-A53E-10C20776F7EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16249650" y="209960695"/>
-          <a:ext cx="3857625" cy="1580030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26922,15 +26661,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4706471</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>2140323</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104">
+        <xdr:cNvPr id="101" name="Picture 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF59B58-FC34-4E53-BF89-0447B4144FE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB797A80-2AE2-4AFA-9D1F-CB669E487614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26939,7 +26678,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -26952,8 +26691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7367867" y="217557724"/>
-          <a:ext cx="4672854" cy="2095499"/>
+          <a:off x="7367867" y="218262574"/>
+          <a:ext cx="4672854" cy="2098301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26977,10 +26716,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105">
+        <xdr:cNvPr id="102" name="Picture 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ED436C-B0EC-490B-B4B3-695B79534738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA88350-BC2C-44E2-8E6E-6DFE452F728A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26989,7 +26728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -27002,7 +26741,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12132049" y="217546519"/>
+          <a:off x="12132049" y="218251369"/>
           <a:ext cx="4117602" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27027,10 +26766,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106">
+        <xdr:cNvPr id="103" name="Picture 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECF10C9-6FF1-4B35-8F4A-9B6CF08125B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F18F102-A897-4577-BAAC-E3FFE0D703C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27039,7 +26778,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -27052,58 +26791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12109637" y="218256811"/>
+          <a:off x="12109637" y="218961661"/>
           <a:ext cx="4140013" cy="668029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1FF57B-6E25-4897-B312-2B32D142AA73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16249650" y="201168000"/>
-          <a:ext cx="3857625" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27127,10 +26816,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108">
+        <xdr:cNvPr id="104" name="Picture 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F13472E-4190-4E83-8274-2CA7A5A09284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86500BF5-BB65-4E62-89B2-6ADE923FC083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27139,7 +26828,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -27152,8 +26841,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4971720" y="201168000"/>
+          <a:off x="4971720" y="202291950"/>
           <a:ext cx="2362530" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4112559</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC30CB57-0528-43E9-A748-90BA11864591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12120843" y="172672563"/>
+          <a:ext cx="4078941" cy="1731869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4751293</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>930089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A303B85E-C993-46A1-B566-68A2A1CDE12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2403662" y="178797137"/>
+          <a:ext cx="4728881" cy="907677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27514,25 +27303,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226A2CF0-60E3-4532-B104-494E44A4F7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48CD0B2-5D9E-4A65-ABDB-55748CE72DCD}">
   <sheetPr codeName="Sheet57">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:XFD117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="62.42578125" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="42.140625" customWidth="1"/>
     <col min="10" max="15" width="61.140625" customWidth="1"/>
@@ -27549,15 +27338,15 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -27568,908 +27357,907 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="107.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="17"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="17"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>19</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>20</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="17"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>23</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="D23" s="13" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="D23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" s="19" customFormat="1" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:10" s="20" customFormat="1" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>0</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>0</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="198" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>2</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="169.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:9 16384:16384" ht="159" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="17"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9 16384:16384" ht="195" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="17"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9 16384:16384" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="17"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9 16384:16384" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="17"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9 16384:16384" ht="204" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="17"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9 16384:16384" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="17"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9 16384:16384" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="17"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="17"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9 16384:16384" ht="153" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="17"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9 16384:16384" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="D42" s="13" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="D42" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9 16384:16384" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>0</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="17"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9 16384:16384" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9 16384:16384" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="13" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="8"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:9 16384:16384" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>0</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>1</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:9 16384:16384" ht="195" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="9"/>
       <c r="XFD48">
         <f>SUM(A48:XFC48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>7</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="D50" s="13" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="D50" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="28"/>
-      <c r="I50" s="8"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:12" ht="312" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>0</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D51" s="29" t="s">
@@ -28481,431 +28269,431 @@
       <c r="F51" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>13</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:12" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>1</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="8"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="153" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="8"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:12" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="8" t="s">
+      <c r="A55" s="9"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="8"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>3</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="8"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:12" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="8" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="7" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="8"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:12" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="9"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="16" t="s">
+      <c r="D61" s="8"/>
+      <c r="E61" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:12" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>4</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="D64" s="13" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="D64" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="8"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>0</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="8"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" ht="199.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="8">
+      <c r="A66" s="9">
         <v>1</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="8"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" ht="196.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="15" t="s">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="8"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="15" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="15" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="8"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="197.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <v>2</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>3</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="13" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" s="19" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
+    <row r="73" spans="1:8" s="20" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
         <v>0</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="G73" s="18"/>
-      <c r="H73" s="15"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+    <row r="74" spans="1:8" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="15"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" s="19" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A75" s="15">
+    <row r="75" spans="1:8" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
         <v>1</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="16" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="15"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="D76" s="13" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="D76" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <v>0</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -28920,648 +28708,639 @@
       <c r="F77" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="A78" s="9">
         <v>2</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="D79" s="13" t="s">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="D79" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="8"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="A80" s="9">
         <v>0</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="8"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="8"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="1:8" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+    <row r="82" spans="1:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>2</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="8"/>
+      <c r="F82" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="8" t="s">
+    <row r="83" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="8"/>
+      <c r="D83" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+    <row r="84" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>3</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" s="8" t="s">
+    <row r="85" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="F85" s="8"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+    <row r="86" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>4</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="36"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="10"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8" t="s">
+    <row r="89" spans="1:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>5</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="10"/>
+      <c r="D89" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="11"/>
     </row>
-    <row r="89" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <v>5</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="7" t="s">
+    <row r="90" spans="1:8" ht="129" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="10"/>
+      <c r="E90" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E90" s="8" t="s">
+    <row r="91" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="D91" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="8"/>
+      <c r="E91" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D91" s="8" t="s">
+    <row r="92" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="A93" s="9">
         <v>6</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="G93" s="10"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="D94" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8" t="s">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="9">
         <v>7</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E96" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7" t="s">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D98" s="37"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="9">
         <v>8</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="E99" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="38"/>
       <c r="C100" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="D100" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="E100" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="A101" s="9">
         <v>9</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="E101" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="G101" s="10"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:10" ht="153" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="37" t="s">
+      <c r="D102" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="D102" s="37"/>
-      <c r="E102" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F102" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F103" s="37"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="9">
         <v>10</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E104" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="D104" s="37" t="s">
+      <c r="F104" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="E104" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="F104" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <v>11</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="E105" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>322</v>
-      </c>
       <c r="F105" s="37"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8" t="s">
-        <v>323</v>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9" t="s">
+        <v>321</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="37"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="37"/>
-      <c r="D107" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="D107" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E107" s="14"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="A108" s="9">
         <v>0</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="F108" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="E108" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:10" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="A109" s="9">
         <v>1</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="F109" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:10" ht="228" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7" t="s">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="D110" s="37" t="s">
+      <c r="F110" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="E110" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="F110" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="D112" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="14"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="D112" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="15"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+      <c r="A113" s="9">
         <v>0</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>339</v>
+      <c r="C113" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+        <v>338</v>
+      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="D115" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="14"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="D115" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="15"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
+      <c r="A116" s="9">
         <v>0</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>342</v>
+      <c r="C116" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="8"/>
-      <c r="G116" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="G116" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
